--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="110">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,12 +55,12 @@
     <t>disappointed</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
@@ -70,283 +70,274 @@
     <t>loves</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>amazing</t>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>glad</t>
   </si>
   <si>
     <t>husband</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>cake</t>
   </si>
   <si>
     <t>cooke</t>
   </si>
   <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
     <t>wife</t>
   </si>
   <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
     <t>potatoes</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
     <t>tea</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>cooks</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>baking</t>
   </si>
   <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
     <t>pan</t>
   </si>
   <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>keeps</t>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
   <si>
     <t>works</t>
   </si>
   <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>exactly</t>
+    <t>maker</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>cook</t>
   </si>
   <si>
     <t>ice</t>
   </si>
   <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>wish</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>anyone</t>
-  </si>
-  <si>
-    <t>fast</t>
+    <t>big</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>cup</t>
   </si>
   <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>hot</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>wish</t>
+    <t>makes</t>
   </si>
   <si>
     <t>long</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>pot</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>cup</t>
+    <t>one</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>one</t>
+    <t>much</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
-    <t>much</t>
+    <t>use</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>made</t>
-  </si>
-  <si>
     <t>used</t>
-  </si>
-  <si>
-    <t>use</t>
   </si>
   <si>
     <t>product</t>
@@ -710,7 +701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q97"/>
+  <dimension ref="A1:Q94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -721,7 +712,7 @@
         <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -779,13 +770,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8275862068965517</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -797,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K3">
-        <v>0.9354838709677419</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="L3">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M3">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -821,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -853,13 +844,13 @@
         <v>18</v>
       </c>
       <c r="K4">
-        <v>0.8695652173913043</v>
+        <v>0.9140625</v>
       </c>
       <c r="L4">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="M4">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -871,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,13 +870,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -897,19 +888,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K5">
-        <v>0.8671875</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L5">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="M5">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -921,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,13 +920,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3396226415094339</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -947,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K6">
-        <v>0.8513931888544891</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L6">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="M6">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -971,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,13 +970,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2945736434108527</v>
+        <v>0.3178294573643411</v>
       </c>
       <c r="C7">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D7">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -997,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K7">
-        <v>0.7402597402597403</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L7">
-        <v>171</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>171</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1021,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,13 +1020,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2121212121212121</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1047,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K8">
-        <v>0.7173913043478261</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1071,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,13 +1070,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1923076923076923</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1097,19 +1088,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K9">
-        <v>0.7142857142857143</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L9">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M9">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1121,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,13 +1120,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1351351351351351</v>
+        <v>0.1135135135135135</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1147,31 +1138,31 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K10">
-        <v>0.6896551724137931</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="L10">
+        <v>53</v>
+      </c>
+      <c r="M10">
+        <v>53</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>20</v>
-      </c>
-      <c r="M10">
-        <v>20</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,13 +1170,13 @@
         <v>25</v>
       </c>
       <c r="K11">
-        <v>0.6590909090909091</v>
+        <v>0.7056277056277056</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="M11">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1197,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1205,13 +1196,13 @@
         <v>26</v>
       </c>
       <c r="K12">
-        <v>0.6508474576271186</v>
+        <v>0.688135593220339</v>
       </c>
       <c r="L12">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="M12">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1223,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1231,13 +1222,13 @@
         <v>27</v>
       </c>
       <c r="K13">
-        <v>0.6491228070175439</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L13">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M13">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1249,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1257,13 +1248,13 @@
         <v>28</v>
       </c>
       <c r="K14">
-        <v>0.6438356164383562</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L14">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M14">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1275,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1283,13 +1274,13 @@
         <v>29</v>
       </c>
       <c r="K15">
-        <v>0.6338028169014085</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L15">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M15">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1301,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1309,13 +1300,13 @@
         <v>30</v>
       </c>
       <c r="K16">
-        <v>0.6323529411764706</v>
+        <v>0.6457142857142857</v>
       </c>
       <c r="L16">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="M16">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1327,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1335,13 +1326,13 @@
         <v>31</v>
       </c>
       <c r="K17">
-        <v>0.6285714285714286</v>
+        <v>0.6364365971107544</v>
       </c>
       <c r="L17">
-        <v>44</v>
+        <v>793</v>
       </c>
       <c r="M17">
-        <v>44</v>
+        <v>793</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1353,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>26</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1361,13 +1352,13 @@
         <v>32</v>
       </c>
       <c r="K18">
-        <v>0.622792937399679</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L18">
-        <v>776</v>
+        <v>28</v>
       </c>
       <c r="M18">
-        <v>776</v>
+        <v>28</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1379,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>470</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1387,13 +1378,13 @@
         <v>33</v>
       </c>
       <c r="K19">
-        <v>0.6222222222222222</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L19">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="M19">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1405,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1413,13 +1404,13 @@
         <v>34</v>
       </c>
       <c r="K20">
-        <v>0.6</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L20">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1431,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>70</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1439,13 +1430,13 @@
         <v>35</v>
       </c>
       <c r="K21">
-        <v>0.5726495726495726</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L21">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1457,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1465,13 +1456,13 @@
         <v>36</v>
       </c>
       <c r="K22">
-        <v>0.5694444444444444</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L22">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M22">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1483,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1491,13 +1482,13 @@
         <v>37</v>
       </c>
       <c r="K23">
-        <v>0.515625</v>
+        <v>0.5673076923076923</v>
       </c>
       <c r="L23">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="M23">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1509,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1517,13 +1508,13 @@
         <v>38</v>
       </c>
       <c r="K24">
-        <v>0.5128205128205128</v>
+        <v>0.5213675213675214</v>
       </c>
       <c r="L24">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="M24">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1535,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>19</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1543,13 +1534,13 @@
         <v>39</v>
       </c>
       <c r="K25">
-        <v>0.5112781954887218</v>
+        <v>0.515625</v>
       </c>
       <c r="L25">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="M25">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1561,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1595,13 +1586,13 @@
         <v>41</v>
       </c>
       <c r="K27">
-        <v>0.5</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="L27">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1613,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1621,13 +1612,13 @@
         <v>42</v>
       </c>
       <c r="K28">
-        <v>0.4923076923076923</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="L28">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M28">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1639,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1647,13 +1638,13 @@
         <v>43</v>
       </c>
       <c r="K29">
-        <v>0.4910179640718563</v>
+        <v>0.463855421686747</v>
       </c>
       <c r="L29">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M29">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1665,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1673,13 +1664,13 @@
         <v>44</v>
       </c>
       <c r="K30">
-        <v>0.4857142857142857</v>
+        <v>0.4511278195488722</v>
       </c>
       <c r="L30">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="M30">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1691,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>18</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1699,13 +1690,13 @@
         <v>45</v>
       </c>
       <c r="K31">
-        <v>0.4807692307692308</v>
+        <v>0.44</v>
       </c>
       <c r="L31">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="M31">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1717,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1725,13 +1716,13 @@
         <v>46</v>
       </c>
       <c r="K32">
-        <v>0.4754098360655737</v>
+        <v>0.437125748502994</v>
       </c>
       <c r="L32">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="M32">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1743,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>32</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1751,13 +1742,13 @@
         <v>47</v>
       </c>
       <c r="K33">
-        <v>0.4397590361445783</v>
+        <v>0.4305555555555556</v>
       </c>
       <c r="L33">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="M33">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1769,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>93</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1780,10 +1771,10 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="L34">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M34">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1795,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1803,13 +1794,13 @@
         <v>49</v>
       </c>
       <c r="K35">
-        <v>0.3947368421052632</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="L35">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1821,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1829,13 +1820,13 @@
         <v>50</v>
       </c>
       <c r="K36">
-        <v>0.3884892086330936</v>
+        <v>0.3815789473684211</v>
       </c>
       <c r="L36">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="M36">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1847,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>85</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1855,13 +1846,13 @@
         <v>51</v>
       </c>
       <c r="K37">
-        <v>0.3848039215686275</v>
+        <v>0.3774509803921569</v>
       </c>
       <c r="L37">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M37">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1873,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1881,13 +1872,13 @@
         <v>52</v>
       </c>
       <c r="K38">
-        <v>0.3813229571984436</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="L38">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="M38">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1899,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>159</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1907,13 +1898,13 @@
         <v>53</v>
       </c>
       <c r="K39">
-        <v>0.38</v>
+        <v>0.3424124513618677</v>
       </c>
       <c r="L39">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="M39">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1925,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>62</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1933,13 +1924,13 @@
         <v>54</v>
       </c>
       <c r="K40">
-        <v>0.3692307692307693</v>
+        <v>0.3383458646616541</v>
       </c>
       <c r="L40">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="M40">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1951,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>41</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1959,13 +1950,13 @@
         <v>55</v>
       </c>
       <c r="K41">
-        <v>0.3673469387755102</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L41">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M41">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1977,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1985,13 +1976,13 @@
         <v>56</v>
       </c>
       <c r="K42">
-        <v>0.3421052631578947</v>
+        <v>0.3301435406698565</v>
       </c>
       <c r="L42">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="M42">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2003,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>50</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2011,13 +2002,13 @@
         <v>57</v>
       </c>
       <c r="K43">
-        <v>0.3333333333333333</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="L43">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M43">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2029,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2037,13 +2028,13 @@
         <v>58</v>
       </c>
       <c r="K44">
-        <v>0.3328767123287671</v>
+        <v>0.3191780821917808</v>
       </c>
       <c r="L44">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="M44">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2055,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>487</v>
+        <v>497</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2063,13 +2054,13 @@
         <v>59</v>
       </c>
       <c r="K45">
-        <v>0.3308270676691729</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="L45">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="M45">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2081,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>89</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2089,13 +2080,13 @@
         <v>60</v>
       </c>
       <c r="K46">
-        <v>0.3214285714285715</v>
+        <v>0.2949640287769784</v>
       </c>
       <c r="L46">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="M46">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2107,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>38</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2115,13 +2106,13 @@
         <v>61</v>
       </c>
       <c r="K47">
-        <v>0.3209876543209876</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="L47">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M47">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2133,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2141,13 +2132,13 @@
         <v>62</v>
       </c>
       <c r="K48">
-        <v>0.3061224489795918</v>
+        <v>0.2882882882882883</v>
       </c>
       <c r="L48">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="M48">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2159,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2167,13 +2158,13 @@
         <v>63</v>
       </c>
       <c r="K49">
-        <v>0.2903225806451613</v>
+        <v>0.2673267326732673</v>
       </c>
       <c r="L49">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M49">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2185,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>44</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2193,13 +2184,13 @@
         <v>64</v>
       </c>
       <c r="K50">
-        <v>0.2882882882882883</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="L50">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M50">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2211,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>79</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2222,10 +2213,10 @@
         <v>0.2631578947368421</v>
       </c>
       <c r="L51">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="M51">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2237,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>154</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2245,13 +2236,13 @@
         <v>66</v>
       </c>
       <c r="K52">
-        <v>0.2574257425742574</v>
+        <v>0.2583423035522067</v>
       </c>
       <c r="L52">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="M52">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2263,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>75</v>
+        <v>689</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2271,13 +2262,13 @@
         <v>67</v>
       </c>
       <c r="K53">
-        <v>0.2561894510226049</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="L53">
-        <v>238</v>
+        <v>25</v>
       </c>
       <c r="M53">
-        <v>238</v>
+        <v>25</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2289,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>691</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2297,13 +2288,13 @@
         <v>68</v>
       </c>
       <c r="K54">
-        <v>0.2288401253918495</v>
+        <v>0.2317880794701987</v>
       </c>
       <c r="L54">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="M54">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2315,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>246</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2323,13 +2314,13 @@
         <v>69</v>
       </c>
       <c r="K55">
-        <v>0.219047619047619</v>
+        <v>0.2261904761904762</v>
       </c>
       <c r="L55">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M55">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2341,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2349,13 +2340,13 @@
         <v>70</v>
       </c>
       <c r="K56">
-        <v>0.2185430463576159</v>
+        <v>0.2225705329153605</v>
       </c>
       <c r="L56">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="M56">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2367,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>118</v>
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2375,13 +2366,13 @@
         <v>71</v>
       </c>
       <c r="K57">
-        <v>0.2145695364238411</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L57">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="M57">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2393,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>593</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2401,13 +2392,13 @@
         <v>72</v>
       </c>
       <c r="K58">
-        <v>0.2142857142857143</v>
+        <v>0.2073170731707317</v>
       </c>
       <c r="L58">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="M58">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2419,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>66</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2427,13 +2418,13 @@
         <v>73</v>
       </c>
       <c r="K59">
-        <v>0.2018348623853211</v>
+        <v>0.1994884910485933</v>
       </c>
       <c r="L59">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="M59">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2445,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>87</v>
+        <v>626</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2453,25 +2444,25 @@
         <v>74</v>
       </c>
       <c r="K60">
-        <v>0.1964285714285714</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="L60">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M60">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N60">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2479,13 +2470,13 @@
         <v>75</v>
       </c>
       <c r="K61">
-        <v>0.1956521739130435</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="L61">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="M61">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2497,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>74</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2505,13 +2496,13 @@
         <v>76</v>
       </c>
       <c r="K62">
-        <v>0.1882352941176471</v>
+        <v>0.1933774834437086</v>
       </c>
       <c r="L62">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="M62">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2523,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>69</v>
+        <v>609</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2531,13 +2522,13 @@
         <v>77</v>
       </c>
       <c r="K63">
-        <v>0.1879795396419437</v>
+        <v>0.1882352941176471</v>
       </c>
       <c r="L63">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="M63">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2549,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>635</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2557,13 +2548,13 @@
         <v>78</v>
       </c>
       <c r="K64">
-        <v>0.1801801801801802</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="L64">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M64">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2575,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2583,13 +2574,13 @@
         <v>79</v>
       </c>
       <c r="K65">
-        <v>0.174496644295302</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L65">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M65">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2601,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>123</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2609,13 +2600,13 @@
         <v>80</v>
       </c>
       <c r="K66">
-        <v>0.1666666666666667</v>
+        <v>0.1630434782608696</v>
       </c>
       <c r="L66">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M66">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2627,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2635,25 +2626,25 @@
         <v>81</v>
       </c>
       <c r="K67">
-        <v>0.1653116531165312</v>
+        <v>0.1590296495956873</v>
       </c>
       <c r="L67">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M67">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="N67">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2661,13 +2652,13 @@
         <v>82</v>
       </c>
       <c r="K68">
-        <v>0.1612903225806452</v>
+        <v>0.1557177615571776</v>
       </c>
       <c r="L68">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="M68">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2679,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>78</v>
+        <v>347</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2687,13 +2678,13 @@
         <v>83</v>
       </c>
       <c r="K69">
-        <v>0.1550387596899225</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="L69">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M69">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2705,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2713,13 +2704,13 @@
         <v>84</v>
       </c>
       <c r="K70">
-        <v>0.1477272727272727</v>
+        <v>0.1351351351351351</v>
       </c>
       <c r="L70">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="M70">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2731,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>375</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2739,13 +2730,13 @@
         <v>85</v>
       </c>
       <c r="K71">
-        <v>0.138655462184874</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L71">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="M71">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2757,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>205</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2765,13 +2756,13 @@
         <v>86</v>
       </c>
       <c r="K72">
-        <v>0.1355932203389831</v>
+        <v>0.1302521008403361</v>
       </c>
       <c r="L72">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M72">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2783,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>153</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2791,13 +2782,13 @@
         <v>87</v>
       </c>
       <c r="K73">
-        <v>0.1341463414634146</v>
+        <v>0.1288343558282209</v>
       </c>
       <c r="L73">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M73">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2817,13 +2808,13 @@
         <v>88</v>
       </c>
       <c r="K74">
-        <v>0.1337719298245614</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="L74">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="M74">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2835,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>395</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2843,13 +2834,13 @@
         <v>89</v>
       </c>
       <c r="K75">
-        <v>0.1313868613138686</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="L75">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="M75">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2861,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>357</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2869,13 +2860,13 @@
         <v>90</v>
       </c>
       <c r="K76">
-        <v>0.1311475409836066</v>
+        <v>0.125</v>
       </c>
       <c r="L76">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="M76">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2887,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>106</v>
+        <v>385</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2895,13 +2886,13 @@
         <v>91</v>
       </c>
       <c r="K77">
-        <v>0.1241830065359477</v>
+        <v>0.1099656357388316</v>
       </c>
       <c r="L77">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="M77">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2913,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>134</v>
+        <v>259</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -2921,13 +2912,13 @@
         <v>92</v>
       </c>
       <c r="K78">
-        <v>0.1230769230769231</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L78">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="M78">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -2939,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>114</v>
+        <v>408</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -2947,13 +2938,13 @@
         <v>93</v>
       </c>
       <c r="K79">
-        <v>0.1057692307692308</v>
+        <v>0.1048387096774194</v>
       </c>
       <c r="L79">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M79">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -2965,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>186</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -2973,13 +2964,13 @@
         <v>94</v>
       </c>
       <c r="K80">
-        <v>0.1030927835051546</v>
+        <v>0.09852216748768473</v>
       </c>
       <c r="L80">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M80">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -2991,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>261</v>
+        <v>183</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -2999,13 +2990,13 @@
         <v>95</v>
       </c>
       <c r="K81">
-        <v>0.09803921568627451</v>
+        <v>0.09785202863961814</v>
       </c>
       <c r="L81">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="M81">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3017,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>138</v>
+        <v>378</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -3025,13 +3016,13 @@
         <v>96</v>
       </c>
       <c r="K82">
-        <v>0.0962962962962963</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="L82">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M82">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3043,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -3051,25 +3042,25 @@
         <v>97</v>
       </c>
       <c r="K83">
-        <v>0.09615384615384616</v>
+        <v>0.09182209469153516</v>
       </c>
       <c r="L83">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="M83">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="N83">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O83">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83">
-        <v>141</v>
+        <v>633</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -3077,25 +3068,25 @@
         <v>98</v>
       </c>
       <c r="K84">
-        <v>0.09562841530054644</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L84">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="M84">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O84">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q84">
-        <v>331</v>
+        <v>160</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -3103,13 +3094,13 @@
         <v>99</v>
       </c>
       <c r="K85">
-        <v>0.09359605911330049</v>
+        <v>0.08487084870848709</v>
       </c>
       <c r="L85">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M85">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3121,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>184</v>
+        <v>248</v>
       </c>
     </row>
     <row r="86" spans="10:17">
@@ -3129,25 +3120,25 @@
         <v>100</v>
       </c>
       <c r="K86">
-        <v>0.09259259259259259</v>
+        <v>0.0821256038647343</v>
       </c>
       <c r="L86">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M86">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N86">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O86">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P86" t="b">
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>245</v>
+        <v>190</v>
       </c>
     </row>
     <row r="87" spans="10:17">
@@ -3155,25 +3146,25 @@
         <v>101</v>
       </c>
       <c r="K87">
-        <v>0.09090909090909091</v>
+        <v>0.0765639589169001</v>
       </c>
       <c r="L87">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="M87">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="N87">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O87">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q87">
-        <v>150</v>
+        <v>989</v>
       </c>
     </row>
     <row r="88" spans="10:17">
@@ -3181,13 +3172,13 @@
         <v>102</v>
       </c>
       <c r="K88">
-        <v>0.08353221957040573</v>
+        <v>0.07103825136612021</v>
       </c>
       <c r="L88">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M88">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3199,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>384</v>
+        <v>340</v>
       </c>
     </row>
     <row r="89" spans="10:17">
@@ -3207,25 +3198,25 @@
         <v>103</v>
       </c>
       <c r="K89">
-        <v>0.08321377331420372</v>
+        <v>0.06318681318681318</v>
       </c>
       <c r="L89">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="M89">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="N89">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O89">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P89" t="b">
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>639</v>
+        <v>341</v>
       </c>
     </row>
     <row r="90" spans="10:17">
@@ -3233,25 +3224,25 @@
         <v>104</v>
       </c>
       <c r="K90">
-        <v>0.07109448082319925</v>
+        <v>0.05535055350553506</v>
       </c>
       <c r="L90">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="M90">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="N90">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O90">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90">
-        <v>993</v>
+        <v>512</v>
       </c>
     </row>
     <row r="91" spans="10:17">
@@ -3259,25 +3250,25 @@
         <v>105</v>
       </c>
       <c r="K91">
-        <v>0.05730129390018484</v>
+        <v>0.046875</v>
       </c>
       <c r="L91">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="M91">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="N91">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="O91">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P91" t="b">
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>510</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="92" spans="10:17">
@@ -3285,25 +3276,25 @@
         <v>106</v>
       </c>
       <c r="K92">
-        <v>0.04945054945054945</v>
+        <v>0.04568527918781726</v>
       </c>
       <c r="L92">
         <v>18</v>
       </c>
       <c r="M92">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N92">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O92">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q92">
-        <v>346</v>
+        <v>376</v>
       </c>
     </row>
     <row r="93" spans="10:17">
@@ -3311,25 +3302,25 @@
         <v>107</v>
       </c>
       <c r="K93">
-        <v>0.04822335025380711</v>
+        <v>0.03262955854126679</v>
       </c>
       <c r="L93">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M93">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N93">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O93">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q93">
-        <v>375</v>
+        <v>504</v>
       </c>
     </row>
     <row r="94" spans="10:17">
@@ -3337,103 +3328,25 @@
         <v>108</v>
       </c>
       <c r="K94">
-        <v>0.04347826086956522</v>
+        <v>0.02113606340819022</v>
       </c>
       <c r="L94">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M94">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N94">
-        <v>1</v>
+        <v>0.62</v>
       </c>
       <c r="O94">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="P94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q94">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="95" spans="10:17">
-      <c r="J95" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K95">
-        <v>0.04038461538461539</v>
-      </c>
-      <c r="L95">
-        <v>21</v>
-      </c>
-      <c r="M95">
-        <v>23</v>
-      </c>
-      <c r="N95">
-        <v>0.91</v>
-      </c>
-      <c r="O95">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P95" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q95">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="96" spans="10:17">
-      <c r="J96" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K96">
-        <v>0.03996524761077324</v>
-      </c>
-      <c r="L96">
-        <v>46</v>
-      </c>
-      <c r="M96">
-        <v>52</v>
-      </c>
-      <c r="N96">
-        <v>0.88</v>
-      </c>
-      <c r="O96">
-        <v>0.12</v>
-      </c>
-      <c r="P96" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q96">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="97" spans="10:17">
-      <c r="J97" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K97">
-        <v>0.01963350785340314</v>
-      </c>
-      <c r="L97">
-        <v>15</v>
-      </c>
-      <c r="M97">
-        <v>18</v>
-      </c>
-      <c r="N97">
-        <v>0.83</v>
-      </c>
-      <c r="O97">
-        <v>0.17</v>
-      </c>
-      <c r="P97" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q97">
-        <v>749</v>
+        <v>741</v>
       </c>
     </row>
   </sheetData>
